--- a/data/n2v/tables/model-1200-1325-20230828-58.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-58.xlsx
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
